--- a/config/level_exp.xlsx
+++ b/config/level_exp.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="12630"/>
+    <workbookView windowWidth="23115" windowHeight="11445"/>
   </bookViews>
   <sheets>
     <sheet name="player_level" sheetId="1" r:id="rId1"/>
+    <sheet name="class_level" sheetId="2" r:id="rId2"/>
+    <sheet name="school_detail" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154">
   <si>
     <t>id</t>
   </si>
@@ -85,16 +87,460 @@
   <si>
     <t>天数</t>
   </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>故事</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>幼儿班</t>
+  </si>
+  <si>
+    <t>学霸征程的第一步，据说有人在这里结伴了青梅竹马</t>
+  </si>
+  <si>
+    <t>小学班</t>
+  </si>
+  <si>
+    <t>中学班</t>
+  </si>
+  <si>
+    <t>高中班</t>
+  </si>
+  <si>
+    <t>大学班</t>
+  </si>
+  <si>
+    <t>研究班</t>
+  </si>
+  <si>
+    <t>博士班</t>
+  </si>
+  <si>
+    <t>学校id</t>
+  </si>
+  <si>
+    <t>学校故事</t>
+  </si>
+  <si>
+    <t>红绿蓝</t>
+  </si>
+  <si>
+    <t>著名上十企业</t>
+  </si>
+  <si>
+    <t>据说对老师非常差</t>
+  </si>
+  <si>
+    <t>翰辰学校</t>
+  </si>
+  <si>
+    <t>江南学校</t>
+  </si>
+  <si>
+    <t>艾莉丝学院</t>
+  </si>
+  <si>
+    <t>蓝翔</t>
+  </si>
+  <si>
+    <t>后街</t>
+  </si>
+  <si>
+    <t>人员非常复杂</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>怀少学校</t>
+  </si>
+  <si>
+    <t>江缘学校</t>
+  </si>
+  <si>
+    <t>石小川学院</t>
+  </si>
+  <si>
+    <t>花月</t>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>这里有一个神奇的5岁儿</t>
+  </si>
+  <si>
+    <t>这家学院因为院长的原因，非常安全</t>
+  </si>
+  <si>
+    <t>圣哲学校</t>
+  </si>
+  <si>
+    <t>樱落学校</t>
+  </si>
+  <si>
+    <t>巴奥德学院</t>
+  </si>
+  <si>
+    <t>老金山</t>
+  </si>
+  <si>
+    <t>涵亚学校</t>
+  </si>
+  <si>
+    <t>棋辰学校</t>
+  </si>
+  <si>
+    <t>萌露伊丝学院</t>
+  </si>
+  <si>
+    <t>樱丘高中</t>
+  </si>
+  <si>
+    <t>胜红</t>
+  </si>
+  <si>
+    <t>如海学校</t>
+  </si>
+  <si>
+    <t>翰皓学校</t>
+  </si>
+  <si>
+    <t>潇樱帝学院</t>
+  </si>
+  <si>
+    <t>黑主学院</t>
+  </si>
+  <si>
+    <t>成龙</t>
+  </si>
+  <si>
+    <t>梦幻学校</t>
+  </si>
+  <si>
+    <t>逸云学校</t>
+  </si>
+  <si>
+    <t>璎珞贵族学院</t>
+  </si>
+  <si>
+    <t>樱兰高校</t>
+  </si>
+  <si>
+    <t>鲲鹏</t>
+  </si>
+  <si>
+    <t>百川学校</t>
+  </si>
+  <si>
+    <t>浅墨学校</t>
+  </si>
+  <si>
+    <t>琉希翼学院</t>
+  </si>
+  <si>
+    <t>正十字学院</t>
+  </si>
+  <si>
+    <t>育才</t>
+  </si>
+  <si>
+    <t>天德学校</t>
+  </si>
+  <si>
+    <t>梅森学校</t>
+  </si>
+  <si>
+    <t>科罗拉多学院</t>
+  </si>
+  <si>
+    <t>御崎高中</t>
+  </si>
+  <si>
+    <t>英皇</t>
+  </si>
+  <si>
+    <t>文尚学校</t>
+  </si>
+  <si>
+    <t>塞缪学校</t>
+  </si>
+  <si>
+    <t>信宥冥拉学院</t>
+  </si>
+  <si>
+    <t>白皇学院</t>
+  </si>
+  <si>
+    <t>天德</t>
+  </si>
+  <si>
+    <t>俊倚学校</t>
+  </si>
+  <si>
+    <t>育达学校</t>
+  </si>
+  <si>
+    <t>凡多纳贵族学院</t>
+  </si>
+  <si>
+    <t>托丽斯汀学院</t>
+  </si>
+  <si>
+    <t>三立</t>
+  </si>
+  <si>
+    <t>圣棋学校</t>
+  </si>
+  <si>
+    <t>文俊学校</t>
+  </si>
+  <si>
+    <t>安珠莉卡学院</t>
+  </si>
+  <si>
+    <t>白选馆学园高校</t>
+  </si>
+  <si>
+    <t>瀚博学校</t>
+  </si>
+  <si>
+    <t>泰耀学校</t>
+  </si>
+  <si>
+    <t>科尔卡娜学院</t>
+  </si>
+  <si>
+    <t>圣迹黑羽学园</t>
+  </si>
+  <si>
+    <t>育英学校</t>
+  </si>
+  <si>
+    <t>瀚华学校</t>
+  </si>
+  <si>
+    <t>伊兰樱学园</t>
+  </si>
+  <si>
+    <t>青学</t>
+  </si>
+  <si>
+    <t>旭胜学校</t>
+  </si>
+  <si>
+    <t>浩瑞学校</t>
+  </si>
+  <si>
+    <t>英皇学院落</t>
+  </si>
+  <si>
+    <r>
+      <t>CLAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学院</t>
+    </r>
+  </si>
+  <si>
+    <t>英华学校</t>
+  </si>
+  <si>
+    <t>瀚西学校</t>
+  </si>
+  <si>
+    <t>圣夜学园</t>
+  </si>
+  <si>
+    <t>冰帝</t>
+  </si>
+  <si>
+    <t>博雷学校</t>
+  </si>
+  <si>
+    <t>文源学校</t>
+  </si>
+  <si>
+    <t>苍月学院</t>
+  </si>
+  <si>
+    <t>私立藤美学园</t>
+  </si>
+  <si>
+    <t>恒北学校</t>
+  </si>
+  <si>
+    <t>冰雪学校</t>
+  </si>
+  <si>
+    <t>菀旭学院</t>
+  </si>
+  <si>
+    <t>常盘台中学</t>
+  </si>
+  <si>
+    <t>依扬学校</t>
+  </si>
+  <si>
+    <t>弘乐学校</t>
+  </si>
+  <si>
+    <t>圣朵玛丽学院</t>
+  </si>
+  <si>
+    <t>德堡学校</t>
+  </si>
+  <si>
+    <t>楠博学校</t>
+  </si>
+  <si>
+    <t>圣米迦乐学院</t>
+  </si>
+  <si>
+    <t>弘哲学校</t>
+  </si>
+  <si>
+    <t>旭韵学校</t>
+  </si>
+  <si>
+    <t>梦简学院</t>
+  </si>
+  <si>
+    <t>雪城学校</t>
+  </si>
+  <si>
+    <t>涛冠学校</t>
+  </si>
+  <si>
+    <r>
+      <t>Andrea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵族学院</t>
+    </r>
+  </si>
+  <si>
+    <t>红宫学校</t>
+  </si>
+  <si>
+    <t>博晋学校</t>
+  </si>
+  <si>
+    <t>冰帝学园</t>
+  </si>
+  <si>
+    <t>晋江学校</t>
+  </si>
+  <si>
+    <t>智舟学校</t>
+  </si>
+  <si>
+    <r>
+      <t>YS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">学院 </t>
+    </r>
+  </si>
+  <si>
+    <t>枫丹学校</t>
+  </si>
+  <si>
+    <t>涛新学校</t>
+  </si>
+  <si>
+    <t>穆瑾学院</t>
+  </si>
+  <si>
+    <t>檀木学校</t>
+  </si>
+  <si>
+    <t>枫翎学校</t>
+  </si>
+  <si>
+    <t>樱贵族学院</t>
+  </si>
+  <si>
+    <t>天府学校</t>
+  </si>
+  <si>
+    <t>万顷学校</t>
+  </si>
+  <si>
+    <t>苏格拉学院</t>
+  </si>
+  <si>
+    <t>树人学校</t>
+  </si>
+  <si>
+    <t>风翰学校</t>
+  </si>
+  <si>
+    <t>浩海学校</t>
+  </si>
+  <si>
+    <t>千宇学校</t>
+  </si>
+  <si>
+    <t>紫云学校</t>
+  </si>
+  <si>
+    <t>先锐学校</t>
+  </si>
+  <si>
+    <t>青春学校</t>
+  </si>
+  <si>
+    <t>星铭学校</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -108,12 +554,79 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,23 +640,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -158,83 +656,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,11 +673,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -265,7 +710,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,13 +770,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,13 +812,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +854,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,109 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,20 +906,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,24 +943,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -538,6 +954,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +992,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +1009,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +1021,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -710,7 +1155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1043,154 +1488,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>180</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185</c:v>
+                  <c:v>36.6666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>241.25</c:v>
+                  <c:v>201.833333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>288.333333333333</c:v>
+                  <c:v>355.071428571429</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>353.125</c:v>
+                  <c:v>527.941176470588</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>431</c:v>
+                  <c:v>739.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>499.6</c:v>
+                  <c:v>948.458333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>579.333333333333</c:v>
+                  <c:v>1187.89285714286</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>668.857142857143</c:v>
+                  <c:v>1413.33333333333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>748.780487804878</c:v>
+                  <c:v>1664.73684210526</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>855.869565217391</c:v>
+                  <c:v>1897.27272727273</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>952.692307692308</c:v>
+                  <c:v>2153.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1039.49152542373</c:v>
+                  <c:v>2388.77192982456</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1151.69230769231</c:v>
+                  <c:v>2645.9375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1253.47222222222</c:v>
+                  <c:v>2882.77777777778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1362.27848101266</c:v>
+                  <c:v>3139.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1477.79069767442</c:v>
+                  <c:v>3377.07865168539</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1599.78494623656</c:v>
+                  <c:v>3633.26530612245</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1728.1</c:v>
+                  <c:v>3870.74074074074</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1845.37037037037</c:v>
+                  <c:v>4125.93220338983</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1968.70689655172</c:v>
+                  <c:v>4363.41085271318</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2114.9593495935</c:v>
+                  <c:v>4617.57142857143</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2249.84732824427</c:v>
+                  <c:v>4855</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2373.28571428571</c:v>
+                  <c:v>5108.17073170732</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2519.25675675676</c:v>
+                  <c:v>5345.53672316384</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2653.63057324841</c:v>
+                  <c:v>5597.78947368421</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2810.24242424242</c:v>
+                  <c:v>5835.09803921569</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2955.05747126437</c:v>
+                  <c:v>6086.51376146789</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3104.97267759563</c:v>
+                  <c:v>6323.77682403433</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3259.89583333333</c:v>
+                  <c:v>6574.43548387097</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3419.75124378109</c:v>
+                  <c:v>6811.66666666667</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3567.48815165877</c:v>
+                  <c:v>7061.64285714286</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3736.95454545455</c:v>
+                  <c:v>7298.85521885522</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3894.17391304348</c:v>
+                  <c:v>7548.21656050955</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4056.04166666667</c:v>
+                  <c:v>7785.42168674699</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4222.48</c:v>
+                  <c:v>8034.22857142857</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4393.42307692308</c:v>
+                  <c:v>8271.43631436314</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4568.81481481481</c:v>
+                  <c:v>8519.74226804124</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4748.60714285714</c:v>
+                  <c:v>8756.96078431373</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4932.75862068965</c:v>
+                  <c:v>9004.81308411215</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5104.21926910299</c:v>
+                  <c:v>9242.04899777283</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5279.9358974359</c:v>
+                  <c:v>9489.48936170213</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5476.80124223603</c:v>
+                  <c:v>9726.74796747967</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5660.84084084084</c:v>
+                  <c:v>9973.81322957198</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5848.98255813954</c:v>
+                  <c:v>10211.0986964618</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6041.18309859155</c:v>
+                  <c:v>10457.8214285714</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6237.4043715847</c:v>
+                  <c:v>10695.1369863014</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6420.58201058201</c:v>
+                  <c:v>10941.5460526316</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6624.70437017995</c:v>
+                  <c:v>11178.8941548183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,6 +1833,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>等级需要经验</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1397,25 +1868,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1627,154 +2079,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>370</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>940</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1930</c:v>
+                  <c:v>2422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3460</c:v>
+                  <c:v>4971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5650</c:v>
+                  <c:v>8975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8620</c:v>
+                  <c:v>14787</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12490</c:v>
+                  <c:v>22763</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17380</c:v>
+                  <c:v>33261</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23410</c:v>
+                  <c:v>46640</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30700</c:v>
+                  <c:v>63260</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39370</c:v>
+                  <c:v>83480</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49540</c:v>
+                  <c:v>107660</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61330</c:v>
+                  <c:v>136160</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74860</c:v>
+                  <c:v>169340</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90250</c:v>
+                  <c:v>207560</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107620</c:v>
+                  <c:v>251180</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127090</c:v>
+                  <c:v>300560</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>148780</c:v>
+                  <c:v>356060</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>172810</c:v>
+                  <c:v>418040</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>199300</c:v>
+                  <c:v>486860</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>228370</c:v>
+                  <c:v>562880</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>260140</c:v>
+                  <c:v>646460</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294730</c:v>
+                  <c:v>737960</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>332260</c:v>
+                  <c:v>837740</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>372850</c:v>
+                  <c:v>946160</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>416620</c:v>
+                  <c:v>1063580</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>463690</c:v>
+                  <c:v>1190360</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>514180</c:v>
+                  <c:v>1326860</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>568210</c:v>
+                  <c:v>1473440</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>625900</c:v>
+                  <c:v>1630460</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>687370</c:v>
+                  <c:v>1798280</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>752740</c:v>
+                  <c:v>1977260</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>822130</c:v>
+                  <c:v>2167760</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>895660</c:v>
+                  <c:v>2370140</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>973450</c:v>
+                  <c:v>2584760</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1055620</c:v>
+                  <c:v>2811980</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1142290</c:v>
+                  <c:v>3052160</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1233580</c:v>
+                  <c:v>3305660</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1329610</c:v>
+                  <c:v>3572840</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1430500</c:v>
+                  <c:v>3854060</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1536370</c:v>
+                  <c:v>4149680</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1647340</c:v>
+                  <c:v>4460060</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1763530</c:v>
+                  <c:v>4785560</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1885060</c:v>
+                  <c:v>5126540</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2012050</c:v>
+                  <c:v>5483360</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2144620</c:v>
+                  <c:v>5856380</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2282890</c:v>
+                  <c:v>6245960</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2426980</c:v>
+                  <c:v>6652460</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2577010</c:v>
+                  <c:v>7076240</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,6 +2448,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>等级单位时间获得经验</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -2012,25 +2488,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2039,7 +2496,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.113833333333333"/>
+          <c:x val="0.11175"/>
           <c:y val="0.152777777777778"/>
           <c:w val="0.882"/>
           <c:h val="0.710972222222222"/>
@@ -2083,154 +2540,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>65</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>108</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>123</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>131</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>140</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>148</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>157</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>165</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>174</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>183</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>192</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>201</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>211</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>220</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>230</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>240</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>260</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>270</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>280</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>290</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>301</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>312</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>322</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>333</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>344</c:v>
+                  <c:v>537</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>355</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>366</c:v>
+                  <c:v>584</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>378</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>389</c:v>
+                  <c:v>633</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4125,7 +4582,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10499725" y="7188200"/>
+        <a:off x="8547100" y="7188200"/>
         <a:ext cx="4848225" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4155,7 +4612,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10587990" y="568960"/>
+        <a:off x="8635365" y="568960"/>
         <a:ext cx="5020310" cy="3009265"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4185,7 +4642,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10598150" y="3949700"/>
+        <a:off x="8645525" y="3949700"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4459,15 +4916,16 @@
   <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="7" width="12.625"/>
     <col min="10" max="10" width="12.625"/>
     <col min="15" max="15" width="12.625"/>
@@ -4529,8 +4987,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>POWER(A4,3)*100+POWER(A4,2)*30+A4*40+10</f>
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -4539,16 +4996,15 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <f>FLOOR(POWER(A4-1,2)/SQRT(A4)+A4*1,1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <f>B4/E4</f>
-        <v>180</v>
+        <v>12.5</v>
       </c>
       <c r="G4">
         <f>F4</f>
-        <v>180</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4556,23 +5012,23 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B36" si="0">POWER(A5,3)*20+POWER(A5,2)*30+A5*40+10</f>
-        <v>370</v>
+        <f>POWER(A5,3)*30+10+FLOOR(B4*0.8,1)</f>
+        <v>330</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E36" si="1">FLOOR(POWER(A5-1,2)/SQRT(A5)+A5*1,1)</f>
-        <v>2</v>
+        <f>E4+FLOOR(A5*0.5,1)</f>
+        <v>9</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F36" si="2">B5/E5</f>
-        <v>185</v>
+        <f t="shared" ref="F5:F36" si="0">B5/E5</f>
+        <v>36.6666666666667</v>
       </c>
       <c r="G5">
         <f>F5+G4</f>
-        <v>365</v>
+        <v>49.1666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4580,23 +5036,23 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>940</v>
+        <f t="shared" ref="B6:B53" si="1">POWER(A6,3)*30+10+FLOOR(B5*0.5,1)</f>
+        <v>985</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="E6:E53" si="2">E5+FLOOR(A6*0.5,1)</f>
+        <v>10</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>188</v>
+        <f t="shared" si="0"/>
+        <v>98.5</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:G53" si="3">F6+G5</f>
-        <v>553</v>
+        <v>147.666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4604,23 +5060,23 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1930</v>
+        <f t="shared" si="1"/>
+        <v>2422</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>241.25</v>
+        <f t="shared" si="0"/>
+        <v>201.833333333333</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>794.25</v>
+        <v>349.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4628,23 +5084,23 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>3460</v>
+        <f t="shared" si="1"/>
+        <v>4971</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>288.333333333333</v>
+        <f t="shared" si="0"/>
+        <v>355.071428571429</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>1082.58333333333</v>
+        <v>704.571428571429</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4652,23 +5108,23 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>5650</v>
+        <f t="shared" si="1"/>
+        <v>8975</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>353.125</v>
+        <f t="shared" si="0"/>
+        <v>527.941176470588</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>1435.70833333333</v>
+        <v>1232.51260504202</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4676,23 +5132,23 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>8620</v>
+        <f t="shared" si="1"/>
+        <v>14787</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>431</v>
+        <f t="shared" si="0"/>
+        <v>739.35</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>1866.70833333333</v>
+        <v>1971.86260504202</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4700,23 +5156,23 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>12490</v>
+        <f t="shared" si="1"/>
+        <v>22763</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>499.6</v>
+        <f t="shared" si="0"/>
+        <v>948.458333333333</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>2366.30833333333</v>
+        <v>2920.32093837535</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4724,23 +5180,23 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>17380</v>
+        <f t="shared" si="1"/>
+        <v>33261</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>579.333333333333</v>
+        <f t="shared" si="0"/>
+        <v>1187.89285714286</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>2945.64166666667</v>
+        <v>4108.21379551821</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4748,23 +5204,23 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>23410</v>
+        <f t="shared" si="1"/>
+        <v>46640</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>668.857142857143</v>
+        <f t="shared" si="0"/>
+        <v>1413.33333333333</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>3614.49880952381</v>
+        <v>5521.54712885154</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4772,23 +5228,23 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>30700</v>
+        <f t="shared" si="1"/>
+        <v>63260</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
-        <v>41</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>748.780487804878</v>
+        <f t="shared" si="0"/>
+        <v>1664.73684210526</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>4363.27929732869</v>
+        <v>7186.2839709568</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4796,23 +5252,23 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>39370</v>
+        <f t="shared" si="1"/>
+        <v>83480</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>855.869565217391</v>
+        <f t="shared" si="0"/>
+        <v>1897.27272727273</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>5219.14886254608</v>
+        <v>9083.55669822953</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4820,23 +5276,23 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>49540</v>
+        <f t="shared" si="1"/>
+        <v>107660</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
-        <v>952.692307692308</v>
+        <f t="shared" si="0"/>
+        <v>2153.2</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>6171.84117023839</v>
+        <v>11236.7566982295</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4844,23 +5300,23 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>61330</v>
+        <f t="shared" si="1"/>
+        <v>136160</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>1039.49152542373</v>
+        <f t="shared" si="0"/>
+        <v>2388.77192982456</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>7211.33269566211</v>
+        <v>13625.5286280541</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4868,23 +5324,23 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>74860</v>
+        <f t="shared" si="1"/>
+        <v>169340</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="F18">
-        <f t="shared" si="2"/>
-        <v>1151.69230769231</v>
+        <f t="shared" si="0"/>
+        <v>2645.9375</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>8363.02500335442</v>
+        <v>16271.4661280541</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4892,23 +5348,23 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>90250</v>
+        <f t="shared" si="1"/>
+        <v>207560</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>1253.47222222222</v>
+        <f t="shared" si="0"/>
+        <v>2882.77777777778</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>9616.49722557664</v>
+        <v>19154.2439058319</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4916,23 +5372,23 @@
         <v>17</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>107620</v>
+        <f t="shared" si="1"/>
+        <v>251180</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="F20">
-        <f t="shared" si="2"/>
-        <v>1362.27848101266</v>
+        <f t="shared" si="0"/>
+        <v>3139.75</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>10978.7757065893</v>
+        <v>22293.9939058319</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4940,23 +5396,23 @@
         <v>18</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>127090</v>
+        <f t="shared" si="1"/>
+        <v>300560</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>89</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
-        <v>1477.79069767442</v>
+        <f t="shared" si="0"/>
+        <v>3377.07865168539</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>12456.5664042637</v>
+        <v>25671.0725575173</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4964,23 +5420,23 @@
         <v>19</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>148780</v>
+        <f t="shared" si="1"/>
+        <v>356060</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
-        <v>93</v>
+        <f t="shared" si="2"/>
+        <v>98</v>
       </c>
       <c r="F22">
-        <f t="shared" si="2"/>
-        <v>1599.78494623656</v>
+        <f t="shared" si="0"/>
+        <v>3633.26530612245</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>14056.3513505003</v>
+        <v>29304.3378636397</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4988,23 +5444,23 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>172810</v>
+        <f t="shared" si="1"/>
+        <v>418040</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
-        <v>1728.1</v>
+        <f t="shared" si="0"/>
+        <v>3870.74074074074</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>15784.4513505003</v>
+        <v>33175.0786043805</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5012,23 +5468,23 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>199300</v>
+        <f t="shared" si="1"/>
+        <v>486860</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <f t="shared" si="2"/>
+        <v>118</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
-        <v>1845.37037037037</v>
+        <f t="shared" si="0"/>
+        <v>4125.93220338983</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>17629.8217208706</v>
+        <v>37301.0108077703</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5036,23 +5492,23 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>228370</v>
+        <f t="shared" si="1"/>
+        <v>562880</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <f t="shared" si="2"/>
+        <v>129</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
-        <v>1968.70689655172</v>
+        <f t="shared" si="0"/>
+        <v>4363.41085271318</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>19598.5286174224</v>
+        <v>41664.4216604835</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5060,23 +5516,23 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>260140</v>
+        <f t="shared" si="1"/>
+        <v>646460</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
-        <v>2114.9593495935</v>
+        <f t="shared" si="0"/>
+        <v>4617.57142857143</v>
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>21713.4879670159</v>
+        <v>46281.9930890549</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5084,23 +5540,23 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>294730</v>
+        <f t="shared" si="1"/>
+        <v>737960</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
-        <v>131</v>
+        <f t="shared" si="2"/>
+        <v>152</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
-        <v>2249.84732824427</v>
+        <f t="shared" si="0"/>
+        <v>4855</v>
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>23963.3352952601</v>
+        <v>51136.9930890549</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5108,23 +5564,23 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>332260</v>
+        <f t="shared" si="1"/>
+        <v>837740</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>164</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
-        <v>2373.28571428571</v>
+        <f t="shared" si="0"/>
+        <v>5108.17073170732</v>
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>26336.6210095459</v>
+        <v>56245.1638207622</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5132,23 +5588,23 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>372850</v>
+        <f t="shared" si="1"/>
+        <v>946160</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
-        <v>148</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="F29">
-        <f t="shared" si="2"/>
-        <v>2519.25675675676</v>
+        <f t="shared" si="0"/>
+        <v>5345.53672316384</v>
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>28855.8777663026</v>
+        <v>61590.700543926</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5156,23 +5612,23 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>416620</v>
+        <f t="shared" si="1"/>
+        <v>1063580</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
-        <v>157</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="F30">
-        <f t="shared" si="2"/>
-        <v>2653.63057324841</v>
+        <f t="shared" si="0"/>
+        <v>5597.78947368421</v>
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>31509.508339551</v>
+        <v>67188.4900176103</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5180,23 +5636,23 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>463690</v>
+        <f t="shared" si="1"/>
+        <v>1190360</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
-        <v>165</v>
+        <f t="shared" si="2"/>
+        <v>204</v>
       </c>
       <c r="F31">
-        <f t="shared" si="2"/>
-        <v>2810.24242424242</v>
+        <f t="shared" si="0"/>
+        <v>5835.09803921569</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>34319.7507637934</v>
+        <v>73023.5880568259</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5204,23 +5660,23 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>514180</v>
+        <f t="shared" si="1"/>
+        <v>1326860</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
-        <v>174</v>
+        <f t="shared" si="2"/>
+        <v>218</v>
       </c>
       <c r="F32">
-        <f t="shared" si="2"/>
-        <v>2955.05747126437</v>
+        <f t="shared" si="0"/>
+        <v>6086.51376146789</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>37274.8082350578</v>
+        <v>79110.1018182938</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -5228,30 +5684,30 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>568210</v>
+        <f t="shared" si="1"/>
+        <v>1473440</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
-        <v>183</v>
+        <f t="shared" si="2"/>
+        <v>233</v>
       </c>
       <c r="F33">
-        <f t="shared" si="2"/>
-        <v>3104.97267759563</v>
+        <f t="shared" si="0"/>
+        <v>6323.77682403433</v>
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>40379.7809126534</v>
+        <v>85433.8786423282</v>
       </c>
       <c r="I33" t="s">
         <v>14</v>
       </c>
       <c r="J33">
-        <f>G53*10</f>
-        <v>1378748.23580569</v>
+        <f>G53*5</f>
+        <v>1315089.47506845</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -5259,30 +5715,30 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>625900</v>
+        <f t="shared" si="1"/>
+        <v>1630460</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>192</v>
+        <f t="shared" si="2"/>
+        <v>248</v>
       </c>
       <c r="F34">
-        <f t="shared" si="2"/>
-        <v>3259.89583333333</v>
+        <f t="shared" si="0"/>
+        <v>6574.43548387097</v>
       </c>
       <c r="G34">
         <f t="shared" si="3"/>
-        <v>43639.6767459868</v>
+        <v>92008.3141261991</v>
       </c>
       <c r="I34" t="s">
         <v>15</v>
       </c>
       <c r="J34">
         <f>J33/3600</f>
-        <v>382.985621057138</v>
+        <v>365.302631963459</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -5290,30 +5746,30 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
-        <v>687370</v>
+        <f t="shared" si="1"/>
+        <v>1798280</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>201</v>
+        <f t="shared" si="2"/>
+        <v>264</v>
       </c>
       <c r="F35">
-        <f t="shared" si="2"/>
-        <v>3419.75124378109</v>
+        <f t="shared" si="0"/>
+        <v>6811.66666666667</v>
       </c>
       <c r="G35">
         <f t="shared" si="3"/>
-        <v>47059.4279897679</v>
+        <v>98819.9807928658</v>
       </c>
       <c r="I35" t="s">
         <v>16</v>
       </c>
       <c r="J35">
         <f>J34/24</f>
-        <v>15.9577342107141</v>
+        <v>15.2209429984775</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5321,23 +5777,23 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
-        <v>752740</v>
+        <f t="shared" si="1"/>
+        <v>1977260</v>
       </c>
       <c r="C36">
         <v>4</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>211</v>
+        <f t="shared" si="2"/>
+        <v>280</v>
       </c>
       <c r="F36">
-        <f t="shared" si="2"/>
-        <v>3567.48815165877</v>
+        <f t="shared" si="0"/>
+        <v>7061.64285714286</v>
       </c>
       <c r="G36">
         <f t="shared" si="3"/>
-        <v>50626.9161414266</v>
+        <v>105881.623650009</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5345,23 +5801,23 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:B53" si="4">POWER(A37,3)*20+POWER(A37,2)*30+A37*40+10</f>
-        <v>822130</v>
+        <f t="shared" si="1"/>
+        <v>2167760</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E53" si="5">FLOOR(POWER(A37-1,2)/SQRT(A37)+A37*1,1)</f>
-        <v>220</v>
+        <f t="shared" si="2"/>
+        <v>297</v>
       </c>
       <c r="F37">
-        <f t="shared" ref="F37:F53" si="6">B37/E37</f>
-        <v>3736.95454545455</v>
+        <f t="shared" ref="F37:F53" si="4">B37/E37</f>
+        <v>7298.85521885522</v>
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>54363.8706868812</v>
+        <v>113180.478868864</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5369,23 +5825,23 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
-        <v>895660</v>
+        <f t="shared" si="1"/>
+        <v>2370140</v>
       </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
-        <v>230</v>
+        <f t="shared" si="2"/>
+        <v>314</v>
       </c>
       <c r="F38">
-        <f t="shared" si="6"/>
-        <v>3894.17391304348</v>
+        <f t="shared" si="4"/>
+        <v>7548.21656050955</v>
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>58258.0445999247</v>
+        <v>120728.695429373</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -5393,23 +5849,23 @@
         <v>36</v>
       </c>
       <c r="B39">
-        <f t="shared" si="4"/>
-        <v>973450</v>
+        <f t="shared" si="1"/>
+        <v>2584760</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
-        <v>240</v>
+        <f t="shared" si="2"/>
+        <v>332</v>
       </c>
       <c r="F39">
-        <f t="shared" si="6"/>
-        <v>4056.04166666667</v>
+        <f t="shared" si="4"/>
+        <v>7785.42168674699</v>
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
-        <v>62314.0862665913</v>
+        <v>128514.11711612</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5417,23 +5873,23 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <f t="shared" si="4"/>
-        <v>1055620</v>
+        <f t="shared" si="1"/>
+        <v>2811980</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>350</v>
       </c>
       <c r="F40">
-        <f t="shared" si="6"/>
-        <v>4222.48</v>
+        <f t="shared" si="4"/>
+        <v>8034.22857142857</v>
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
-        <v>66536.5662665913</v>
+        <v>136548.345687549</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -5441,23 +5897,23 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <f t="shared" si="4"/>
-        <v>1142290</v>
+        <f t="shared" si="1"/>
+        <v>3052160</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
-        <v>260</v>
+        <f t="shared" si="2"/>
+        <v>369</v>
       </c>
       <c r="F41">
-        <f t="shared" si="6"/>
-        <v>4393.42307692308</v>
+        <f t="shared" si="4"/>
+        <v>8271.43631436314</v>
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>70929.9893435144</v>
+        <v>144819.782001912</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -5465,23 +5921,23 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <f t="shared" si="4"/>
-        <v>1233580</v>
+        <f t="shared" si="1"/>
+        <v>3305660</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
-        <v>270</v>
+        <f t="shared" si="2"/>
+        <v>388</v>
       </c>
       <c r="F42">
-        <f t="shared" si="6"/>
-        <v>4568.81481481481</v>
+        <f t="shared" si="4"/>
+        <v>8519.74226804124</v>
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>75498.8041583292</v>
+        <v>153339.524269953</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -5489,23 +5945,23 @@
         <v>40</v>
       </c>
       <c r="B43">
-        <f t="shared" si="4"/>
-        <v>1329610</v>
+        <f t="shared" si="1"/>
+        <v>3572840</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="E43">
-        <f t="shared" si="5"/>
-        <v>280</v>
+        <f t="shared" si="2"/>
+        <v>408</v>
       </c>
       <c r="F43">
-        <f t="shared" si="6"/>
-        <v>4748.60714285714</v>
+        <f t="shared" si="4"/>
+        <v>8756.96078431373</v>
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>80247.4113011864</v>
+        <v>162096.485054267</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -5513,23 +5969,23 @@
         <v>41</v>
       </c>
       <c r="B44">
-        <f t="shared" si="4"/>
-        <v>1430500</v>
+        <f t="shared" si="1"/>
+        <v>3854060</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
-        <v>290</v>
+        <f t="shared" si="2"/>
+        <v>428</v>
       </c>
       <c r="F44">
-        <f t="shared" si="6"/>
-        <v>4932.75862068965</v>
+        <f t="shared" si="4"/>
+        <v>9004.81308411215</v>
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>85180.169921876</v>
+        <v>171101.298138379</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5537,23 +5993,23 @@
         <v>42</v>
       </c>
       <c r="B45">
-        <f t="shared" si="4"/>
-        <v>1536370</v>
+        <f t="shared" si="1"/>
+        <v>4149680</v>
       </c>
       <c r="C45">
         <v>5</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
-        <v>301</v>
+        <f t="shared" si="2"/>
+        <v>449</v>
       </c>
       <c r="F45">
-        <f t="shared" si="6"/>
-        <v>5104.21926910299</v>
+        <f t="shared" si="4"/>
+        <v>9242.04899777283</v>
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>90284.389190979</v>
+        <v>180343.347136152</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5561,23 +6017,23 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <f t="shared" si="4"/>
-        <v>1647340</v>
+        <f t="shared" si="1"/>
+        <v>4460060</v>
       </c>
       <c r="C46">
         <v>5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="5"/>
-        <v>312</v>
+        <f t="shared" si="2"/>
+        <v>470</v>
       </c>
       <c r="F46">
-        <f t="shared" si="6"/>
-        <v>5279.9358974359</v>
+        <f t="shared" si="4"/>
+        <v>9489.48936170213</v>
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>95564.3250884149</v>
+        <v>189832.836497854</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5585,23 +6041,23 @@
         <v>44</v>
       </c>
       <c r="B47">
-        <f t="shared" si="4"/>
-        <v>1763530</v>
+        <f t="shared" si="1"/>
+        <v>4785560</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
-        <v>322</v>
+        <f t="shared" si="2"/>
+        <v>492</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
-        <v>5476.80124223603</v>
+        <f t="shared" si="4"/>
+        <v>9726.74796747967</v>
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>101041.126330651</v>
+        <v>199559.584465334</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5609,23 +6065,23 @@
         <v>45</v>
       </c>
       <c r="B48">
-        <f t="shared" si="4"/>
-        <v>1885060</v>
+        <f t="shared" si="1"/>
+        <v>5126540</v>
       </c>
       <c r="C48">
         <v>5</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
-        <v>333</v>
+        <f t="shared" si="2"/>
+        <v>514</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
-        <v>5660.84084084084</v>
+        <f t="shared" si="4"/>
+        <v>9973.81322957198</v>
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>106701.967171492</v>
+        <v>209533.397694906</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5633,23 +6089,23 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <f t="shared" si="4"/>
-        <v>2012050</v>
+        <f t="shared" si="1"/>
+        <v>5483360</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
-        <v>344</v>
+        <f t="shared" si="2"/>
+        <v>537</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
-        <v>5848.98255813954</v>
+        <f t="shared" si="4"/>
+        <v>10211.0986964618</v>
       </c>
       <c r="G49">
         <f t="shared" si="3"/>
-        <v>112550.949729631</v>
+        <v>219744.496391368</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5657,23 +6113,23 @@
         <v>47</v>
       </c>
       <c r="B50">
-        <f t="shared" si="4"/>
-        <v>2144620</v>
+        <f t="shared" si="1"/>
+        <v>5856380</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
-        <v>355</v>
+        <f t="shared" si="2"/>
+        <v>560</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
-        <v>6041.18309859155</v>
+        <f t="shared" si="4"/>
+        <v>10457.8214285714</v>
       </c>
       <c r="G50">
         <f t="shared" si="3"/>
-        <v>118592.132828223</v>
+        <v>230202.317819939</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -5681,23 +6137,23 @@
         <v>48</v>
       </c>
       <c r="B51">
-        <f t="shared" si="4"/>
-        <v>2282890</v>
+        <f t="shared" si="1"/>
+        <v>6245960</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
-        <v>366</v>
+        <f t="shared" si="2"/>
+        <v>584</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
-        <v>6237.4043715847</v>
+        <f t="shared" si="4"/>
+        <v>10695.1369863014</v>
       </c>
       <c r="G51">
         <f t="shared" si="3"/>
-        <v>124829.537199808</v>
+        <v>240897.45480624</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -5705,23 +6161,23 @@
         <v>49</v>
       </c>
       <c r="B52">
-        <f t="shared" si="4"/>
-        <v>2426980</v>
+        <f t="shared" si="1"/>
+        <v>6652460</v>
       </c>
       <c r="C52">
         <v>6</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
-        <v>378</v>
+        <f t="shared" si="2"/>
+        <v>608</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
-        <v>6420.58201058201</v>
+        <f t="shared" si="4"/>
+        <v>10941.5460526316</v>
       </c>
       <c r="G52">
         <f t="shared" si="3"/>
-        <v>131250.11921039</v>
+        <v>251839.000858872</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -5729,23 +6185,23 @@
         <v>50</v>
       </c>
       <c r="B53">
-        <f t="shared" si="4"/>
-        <v>2577010</v>
+        <f t="shared" si="1"/>
+        <v>7076240</v>
       </c>
       <c r="C53">
         <v>6</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
-        <v>389</v>
+        <f t="shared" si="2"/>
+        <v>633</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
-        <v>6624.70437017995</v>
+        <f t="shared" si="4"/>
+        <v>11178.8941548183</v>
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
-        <v>137874.82358057</v>
+        <v>263017.89501369</v>
       </c>
     </row>
   </sheetData>
@@ -5754,4 +6210,730 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="16" max="16" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="14:17">
+      <c r="N16" t="s">
+        <v>99</v>
+      </c>
+      <c r="O16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" ht="19.5" spans="14:17">
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17">
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="14:17">
+      <c r="N19" t="s">
+        <v>111</v>
+      </c>
+      <c r="O19" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="14:17">
+      <c r="N20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="14:16">
+      <c r="N21" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="14:16">
+      <c r="N22" t="s">
+        <v>122</v>
+      </c>
+      <c r="O22" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="14:16">
+      <c r="N23" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" ht="19.5" spans="14:16">
+      <c r="N24" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" t="s">
+        <v>129</v>
+      </c>
+      <c r="P24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="14:16">
+      <c r="N25" t="s">
+        <v>131</v>
+      </c>
+      <c r="O25" t="s">
+        <v>132</v>
+      </c>
+      <c r="P25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" ht="19.5" spans="14:16">
+      <c r="N26" t="s">
+        <v>134</v>
+      </c>
+      <c r="O26" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="14:16">
+      <c r="N27" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" t="s">
+        <v>138</v>
+      </c>
+      <c r="P27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="14:16">
+      <c r="N28" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="14:16">
+      <c r="N29" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="14:15">
+      <c r="N30" t="s">
+        <v>146</v>
+      </c>
+      <c r="O30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="14:15">
+      <c r="N31" t="s">
+        <v>148</v>
+      </c>
+      <c r="O31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="14:15">
+      <c r="N32" t="s">
+        <v>150</v>
+      </c>
+      <c r="O32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="14:15">
+      <c r="N33" t="s">
+        <v>152</v>
+      </c>
+      <c r="O33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>